--- a/tests/excel/render_source_file/read_datetime.xlsx
+++ b/tests/excel/render_source_file/read_datetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\userfiles\software-devel\python\pytools\csv_converter\tests\excel\render_source_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50929FF-7948-434E-BF67-A30097390B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D83479-0FD0-451C-B1CF-085A6691954D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34335" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>column-G3</t>
     <phoneticPr fontId="1"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Head-B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Head-C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Head-D</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -59,34 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>2C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>5C</t>
-  </si>
-  <si>
     <t>2D</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,6 +104,14 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -147,8 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -186,9 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -472,78 +447,79 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>672</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="B2" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="3">
+        <v>672.42361111111109</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>673</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="B3" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C3" s="3">
+        <v>673.51388888888891</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -553,46 +529,46 @@
       <c r="A4" s="1">
         <v>674</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>674.5625</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>44505</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="B5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44505.611111111109</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
